--- a/output/1Y_P79_1VAL-D.xlsx
+++ b/output/1Y_P79_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>640.2745</v>
       </c>
-      <c r="G2" s="1">
-        <v>640.2745</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1378</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.6183</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1378</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E3" s="1">
+        <v>640.2745</v>
+      </c>
       <c r="F3" s="1">
         <v>622.952</v>
       </c>
-      <c r="G3" s="1">
-        <v>1263.2266</v>
-      </c>
       <c r="H3" s="1">
-        <v>20172.8445</v>
+        <v>10224.7364</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8325</v>
+        <v>10224.7364</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.6183</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20172.8445</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0113</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E4" s="1">
+        <v>1263.2266</v>
+      </c>
       <c r="F4" s="1">
         <v>634.6708</v>
       </c>
-      <c r="G4" s="1">
-        <v>1897.8974</v>
-      </c>
       <c r="H4" s="1">
-        <v>29748.5927</v>
+        <v>19800.4453</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.807</v>
+        <v>19800.4453</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.8325</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29748.5927</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0141</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E5" s="1">
+        <v>1897.8974</v>
+      </c>
       <c r="F5" s="1">
         <v>651.0205</v>
       </c>
-      <c r="G5" s="1">
-        <v>2548.9179</v>
-      </c>
       <c r="H5" s="1">
-        <v>38949.5041</v>
+        <v>29001.3905</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6929</v>
+        <v>29001.3905</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.807</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38949.5041</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0201</v>
+        <v>-0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E6" s="1">
+        <v>2548.9179</v>
+      </c>
       <c r="F6" s="1">
         <v>654.4674</v>
       </c>
-      <c r="G6" s="1">
-        <v>3203.3853</v>
-      </c>
       <c r="H6" s="1">
-        <v>48692.417</v>
+        <v>38744.3162</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6085</v>
+        <v>38744.3162</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6929</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48692.417</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E7" s="1">
+        <v>3203.3853</v>
+      </c>
       <c r="F7" s="1">
         <v>649.2578999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>3852.6432</v>
-      </c>
       <c r="H7" s="1">
-        <v>59031.3543</v>
+        <v>49083.23</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5737</v>
+        <v>49083.23</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6085</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59031.3543</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.042</v>
       </c>
+      <c r="E8" s="1">
+        <v>3852.6432</v>
+      </c>
       <c r="F8" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G8" s="1">
-        <v>4476.0068</v>
-      </c>
       <c r="H8" s="1">
-        <v>71432.14539999999</v>
+        <v>61483.9469</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6389</v>
+        <v>61483.9469</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5737</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71432.14539999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0348</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E9" s="1">
+        <v>4476.0068</v>
+      </c>
       <c r="F9" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G9" s="1">
-        <v>5107.1526</v>
-      </c>
       <c r="H9" s="1">
-        <v>80498.93949999999</v>
+        <v>70550.8196</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.6643</v>
+        <v>70550.8196</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6389</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80498.93949999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0115</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E10" s="1">
+        <v>5107.1526</v>
+      </c>
       <c r="F10" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G10" s="1">
-        <v>5733.2914</v>
-      </c>
       <c r="H10" s="1">
-        <v>91090.5338</v>
+        <v>81142.44070000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6978</v>
+        <v>81142.44070000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.6643</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91090.5338</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.743</v>
       </c>
+      <c r="E11" s="1">
+        <v>5733.2914</v>
+      </c>
       <c r="F11" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G11" s="1">
-        <v>6330.5559</v>
-      </c>
       <c r="H11" s="1">
-        <v>105443.0057</v>
+        <v>95494.84819999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.7964</v>
+        <v>95494.84819999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6978</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105443.0057</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0431</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E12" s="1">
+        <v>6330.5559</v>
+      </c>
       <c r="F12" s="1">
         <v>567.553</v>
       </c>
-      <c r="G12" s="1">
-        <v>6898.1089</v>
-      </c>
       <c r="H12" s="1">
-        <v>120910.743</v>
+        <v>110962.6174</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9464</v>
+        <v>110962.6174</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.7964</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120910.743</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0474</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E13" s="1">
+        <v>6898.1089</v>
+      </c>
       <c r="F13" s="1">
         <v>566.104</v>
       </c>
-      <c r="G13" s="1">
-        <v>7464.2129</v>
-      </c>
       <c r="H13" s="1">
-        <v>131168.613</v>
+        <v>121220.4681</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0767</v>
+        <v>121220.4681</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.9464</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131168.613</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E14" s="1">
+        <v>7464.2129</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7464.2129</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6898.1089</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128155.3103</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0767</v>
+        <v>128155.3103</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.737</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>128155.3103</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>128155.3103</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128155.3103</v>
+        <v>118435.7016</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0922</v>
+        <v>-0.0234</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.6183</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>640.2745</v>
       </c>
       <c r="G2" s="1">
-        <v>640.2745</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1378</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.6183</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1378</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.0526</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>640.2745</v>
       </c>
       <c r="F3" s="1">
         <v>612.1285</v>
       </c>
       <c r="G3" s="1">
-        <v>1252.403</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10224.7364</v>
       </c>
       <c r="I3" s="1">
-        <v>19826.2539</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8306</v>
+        <v>10224.7364</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9826.2539</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3469</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9826.2539</v>
       </c>
-      <c r="O3" s="1">
-        <v>173.7461</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20173.7461</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0113</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.7562</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1252.403</v>
       </c>
       <c r="F4" s="1">
         <v>645.698</v>
       </c>
       <c r="G4" s="1">
-        <v>1898.101</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29751.7841</v>
+        <v>19630.7916</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>173.7461</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8053</v>
+        <v>19804.5376</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9693</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10173.7461</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29751.7841</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.014</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.3605</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1898.101</v>
       </c>
       <c r="F5" s="1">
         <v>651.0205</v>
       </c>
       <c r="G5" s="1">
-        <v>2549.1215</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38952.6154</v>
+        <v>29004.5018</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6917</v>
+        <v>29004.5018</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8053</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38952.6154</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0201</v>
+        <v>-0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.2796</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2549.1215</v>
       </c>
       <c r="F6" s="1">
         <v>654.4674</v>
       </c>
       <c r="G6" s="1">
-        <v>3203.5889</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>48695.5119</v>
+        <v>38747.4111</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6075</v>
+        <v>38747.4111</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6917</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48695.5119</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.4022</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3203.5889</v>
       </c>
       <c r="F7" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3852.8468</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59034.474</v>
+        <v>49086.3497</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5729</v>
+        <v>49086.3497</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6075</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59034.474</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.042</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3852.8468</v>
       </c>
       <c r="F8" s="1">
         <v>533.4204999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4386.2672</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61487.1963</v>
       </c>
       <c r="I8" s="1">
-        <v>68557.13099999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6299</v>
+        <v>61487.1963</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58557.131</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.1984</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8557.130999999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>1442.869</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71442.86900000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0349</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.8442</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4386.2672</v>
       </c>
       <c r="F9" s="1">
         <v>689.2308</v>
       </c>
       <c r="G9" s="1">
-        <v>5075.498</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>69136.344</v>
       </c>
       <c r="I9" s="1">
-        <v>79477.4418</v>
+        <v>1442.869</v>
       </c>
       <c r="J9" s="1">
-        <v>15.659</v>
+        <v>70579.213</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69477.4418</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.8398</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10920.3108</v>
       </c>
-      <c r="O9" s="1">
-        <v>522.5582000000001</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80522.5582</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0113</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.9709</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5075.498</v>
       </c>
       <c r="F10" s="1">
         <v>589.1545</v>
       </c>
       <c r="G10" s="1">
-        <v>5664.6526</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80639.5128</v>
       </c>
       <c r="I10" s="1">
-        <v>88886.7699</v>
+        <v>522.5582000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6915</v>
+        <v>81162.071</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78886.7699</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.5427</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9409.3282</v>
       </c>
-      <c r="O10" s="1">
-        <v>1113.2301</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91113.2301</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.743</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5664.6526</v>
       </c>
       <c r="F11" s="1">
         <v>339.1178</v>
       </c>
       <c r="G11" s="1">
-        <v>6003.7704</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>94351.5861</v>
       </c>
       <c r="I11" s="1">
-        <v>94564.6192</v>
+        <v>1113.2301</v>
       </c>
       <c r="J11" s="1">
-        <v>15.7509</v>
+        <v>95464.8162</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84564.6192</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9285</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5677.8493</v>
       </c>
-      <c r="O11" s="1">
-        <v>5435.3808</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105435.3808</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0427</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.6195</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6003.7704</v>
       </c>
       <c r="F12" s="1">
         <v>271.867</v>
       </c>
       <c r="G12" s="1">
-        <v>6275.6374</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>105234.6874</v>
       </c>
       <c r="I12" s="1">
-        <v>99354.78049999999</v>
+        <v>5435.3808</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8318</v>
+        <v>110670.0681</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89354.78049999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.8831</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4790.1613</v>
       </c>
-      <c r="O12" s="1">
-        <v>10645.2195</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120645.2195</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0451</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.6646</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6275.6374</v>
       </c>
       <c r="F13" s="1">
         <v>553.0202</v>
       </c>
       <c r="G13" s="1">
-        <v>6828.6576</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110281.7761</v>
       </c>
       <c r="I13" s="1">
-        <v>109123.661</v>
+        <v>10645.2195</v>
       </c>
       <c r="J13" s="1">
-        <v>15.9803</v>
+        <v>120926.9956</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99123.66099999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.795</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9768.880499999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>10876.339</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130876.339</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0018</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.2588</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6828.6576</v>
       </c>
       <c r="F14" s="1">
         <v>-6828.6576</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117243.2709</v>
       </c>
       <c r="I14" s="1">
-        <v>109123.661</v>
+        <v>10876.339</v>
       </c>
       <c r="J14" s="1">
-        <v>15.9803</v>
+        <v>128119.6099</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99123.66099999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5158</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>117243.2709</v>
       </c>
-      <c r="O14" s="1">
-        <v>128119.6099</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128119.6099</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0906</v>
+        <v>-0.0214</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.6183</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>640.2745</v>
       </c>
       <c r="G2" s="1">
-        <v>640.2745</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1378</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.6183</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1378</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.0526</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>640.2745</v>
       </c>
       <c r="F3" s="1">
         <v>615.2595</v>
       </c>
       <c r="G3" s="1">
-        <v>1255.5341</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10224.7364</v>
       </c>
       <c r="I3" s="1">
-        <v>19876.5147</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8311</v>
+        <v>10224.7364</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9876.5147</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4254</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9876.5147</v>
       </c>
-      <c r="O3" s="1">
-        <v>123.4853</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20173.4853</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0113</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.7562</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1255.5341</v>
       </c>
       <c r="F4" s="1">
         <v>642.508</v>
       </c>
       <c r="G4" s="1">
-        <v>1898.0421</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29750.8609</v>
+        <v>19679.8686</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>123.4853</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8058</v>
+        <v>19803.3538</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9295</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10123.4853</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29750.8609</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.014</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.3605</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1898.0421</v>
       </c>
       <c r="F5" s="1">
         <v>651.0205</v>
       </c>
       <c r="G5" s="1">
-        <v>2549.0626</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38951.7154</v>
+        <v>29003.6017</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.692</v>
+        <v>29003.6017</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8058</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38951.7154</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0201</v>
+        <v>-0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.2796</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2549.0626</v>
       </c>
       <c r="F6" s="1">
         <v>654.4674</v>
       </c>
       <c r="G6" s="1">
-        <v>3203.53</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>48694.6166</v>
+        <v>38746.5159</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6078</v>
+        <v>38746.5159</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.692</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48694.6166</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.4022</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3203.53</v>
       </c>
       <c r="F7" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3852.7879</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59033.5715</v>
+        <v>49085.4473</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5731</v>
+        <v>49085.4473</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6078</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59033.5715</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.042</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3852.7879</v>
       </c>
       <c r="F8" s="1">
         <v>599.8244</v>
       </c>
       <c r="G8" s="1">
-        <v>4452.6123</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61486.2563</v>
       </c>
       <c r="I8" s="1">
-        <v>69622.383</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6363</v>
+        <v>61486.2563</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59622.383</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4751</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9622.383</v>
       </c>
-      <c r="O8" s="1">
-        <v>377.617</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71436.4109</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0348</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.8442</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4452.6123</v>
       </c>
       <c r="F9" s="1">
         <v>654.9789</v>
       </c>
       <c r="G9" s="1">
-        <v>5107.5912</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>80505.8523</v>
+        <v>70182.0745</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>377.617</v>
       </c>
       <c r="J9" s="1">
-        <v>15.663</v>
+        <v>70559.6915</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.7211</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10377.617</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80505.8523</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0114</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.9709</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5107.5912</v>
       </c>
       <c r="F10" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5733.73</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91097.5019</v>
+        <v>81149.4088</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6966</v>
+        <v>81149.4088</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.663</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91097.5019</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.743</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5733.73</v>
       </c>
       <c r="F11" s="1">
         <v>406.9422</v>
       </c>
       <c r="G11" s="1">
-        <v>6140.6722</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95502.1532</v>
       </c>
       <c r="I11" s="1">
-        <v>96813.43339999999</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.7659</v>
+        <v>95502.1532</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86813.43339999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.1408</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6813.4334</v>
       </c>
-      <c r="O11" s="1">
-        <v>3186.5666</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105466.8306</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0432</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.6195</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6140.6722</v>
       </c>
       <c r="F12" s="1">
         <v>294.2332</v>
       </c>
       <c r="G12" s="1">
-        <v>6434.9054</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>107634.3162</v>
       </c>
       <c r="I12" s="1">
-        <v>101997.6756</v>
+        <v>3186.5666</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8507</v>
+        <v>110820.8827</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>91997.6756</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.9817</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5184.2422</v>
       </c>
-      <c r="O12" s="1">
-        <v>8002.3244</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120793.9898</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0461</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.6646</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6434.9054</v>
       </c>
       <c r="F13" s="1">
         <v>584.7056</v>
       </c>
       <c r="G13" s="1">
-        <v>7019.611</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>113080.5927</v>
       </c>
       <c r="I13" s="1">
-        <v>112326.2657</v>
+        <v>8002.3244</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0018</v>
+        <v>121082.9171</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102326.2657</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.9018</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10328.5901</v>
       </c>
-      <c r="O13" s="1">
-        <v>7673.7343</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131029.358</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.2588</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7019.611</v>
       </c>
       <c r="F14" s="1">
         <v>-7019.611</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120521.8068</v>
       </c>
       <c r="I14" s="1">
-        <v>112326.2657</v>
+        <v>7673.7343</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0018</v>
+        <v>128195.5411</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102326.2657</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5772</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120521.8068</v>
       </c>
-      <c r="O14" s="1">
-        <v>128195.5411</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128195.5411</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.091</v>
+        <v>-0.022</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.6183</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>640.2745</v>
       </c>
       <c r="G2" s="1">
-        <v>640.2745</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1378</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.6183</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1378</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.0526</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>640.2745</v>
       </c>
       <c r="F3" s="1">
         <v>618.3905</v>
       </c>
       <c r="G3" s="1">
-        <v>1258.6651</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10224.7364</v>
       </c>
       <c r="I3" s="1">
-        <v>19926.7756</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8317</v>
+        <v>10224.7364</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9926.775600000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.5039</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9926.775600000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>73.2244</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20173.2244</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0113</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.7562</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1258.6651</v>
       </c>
       <c r="F4" s="1">
         <v>639.3181</v>
       </c>
       <c r="G4" s="1">
-        <v>1897.9832</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29749.9377</v>
+        <v>19728.9455</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>73.2244</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8063</v>
+        <v>19802.17</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.8899</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10073.2244</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29749.9377</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.014</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.3605</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1897.9832</v>
       </c>
       <c r="F5" s="1">
         <v>651.0205</v>
       </c>
       <c r="G5" s="1">
-        <v>2549.0037</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38950.8154</v>
+        <v>29002.7017</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6924</v>
+        <v>29002.7017</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8063</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38950.8154</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0201</v>
+        <v>-0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.2796</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2549.0037</v>
       </c>
       <c r="F6" s="1">
         <v>654.4674</v>
       </c>
       <c r="G6" s="1">
-        <v>3203.4711</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>48693.7213</v>
+        <v>38745.6206</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6081</v>
+        <v>38745.6206</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6924</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48693.7213</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.4022</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3203.4711</v>
       </c>
       <c r="F7" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3852.729</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59032.6691</v>
+        <v>49084.5448</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5734</v>
+        <v>49084.5448</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6081</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59032.6691</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.042</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3852.729</v>
       </c>
       <c r="F8" s="1">
         <v>623.3637</v>
       </c>
       <c r="G8" s="1">
-        <v>4476.0926</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>71433.5148</v>
+        <v>61485.3163</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6386</v>
+        <v>61485.3163</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5734</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71433.5148</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0348</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.8442</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4476.0926</v>
       </c>
       <c r="F9" s="1">
         <v>631.1458</v>
       </c>
       <c r="G9" s="1">
-        <v>5107.2384</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>80500.292</v>
+        <v>70552.1722</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.664</v>
+        <v>70552.1722</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6386</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80500.292</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0115</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.9709</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5107.2384</v>
       </c>
       <c r="F10" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5733.3772</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>91091.8971</v>
+        <v>81143.804</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6976</v>
+        <v>81143.804</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.664</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91091.8971</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.743</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5733.3772</v>
       </c>
       <c r="F11" s="1">
         <v>547.895</v>
       </c>
       <c r="G11" s="1">
-        <v>6281.2722</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>95496.2775</v>
       </c>
       <c r="I11" s="1">
-        <v>99173.40519999999</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.7887</v>
+        <v>95496.2775</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89173.40519999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5534</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9173.405199999999</v>
       </c>
-      <c r="O11" s="1">
-        <v>826.5948</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105448.7202</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0431</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.6195</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6281.2722</v>
       </c>
       <c r="F12" s="1">
         <v>317.7515</v>
       </c>
       <c r="G12" s="1">
-        <v>6599.0237</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>110098.7666</v>
       </c>
       <c r="I12" s="1">
-        <v>104772.0277</v>
+        <v>826.5948</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8769</v>
+        <v>110925.3614</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94772.02770000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.088</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5598.6225</v>
       </c>
-      <c r="O12" s="1">
-        <v>5227.9723</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120896.3189</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0472</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.6646</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6599.0237</v>
       </c>
       <c r="F13" s="1">
         <v>618.0155999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7217.0392</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>115964.6428</v>
       </c>
       <c r="I13" s="1">
-        <v>115689.0253</v>
+        <v>5227.9723</v>
       </c>
       <c r="J13" s="1">
-        <v>16.03</v>
+        <v>121192.6151</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105689.0253</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.0159</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10916.9975</v>
       </c>
-      <c r="O13" s="1">
-        <v>4310.9747</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131136.0049</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.2588</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7217.0392</v>
       </c>
       <c r="F14" s="1">
         <v>-7217.0392</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123911.5114</v>
       </c>
       <c r="I14" s="1">
-        <v>115689.0253</v>
+        <v>4310.9747</v>
       </c>
       <c r="J14" s="1">
-        <v>16.03</v>
+        <v>128222.4861</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105689.0253</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.6444</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123911.5114</v>
       </c>
-      <c r="O14" s="1">
-        <v>128222.4861</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128222.4861</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0915</v>
+        <v>-0.0226</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.6183</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>640.2745</v>
       </c>
       <c r="G2" s="1">
-        <v>640.2745</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1378</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.6183</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1378</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.0526</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>640.2745</v>
       </c>
       <c r="F3" s="1">
         <v>621.5214999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1261.7961</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10224.7364</v>
       </c>
       <c r="I3" s="1">
-        <v>19977.0364</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8322</v>
+        <v>10224.7364</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9977.036400000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.5824</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9977.036400000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>22.9636</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20172.9636</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0113</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.7562</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1261.7961</v>
       </c>
       <c r="F4" s="1">
         <v>636.1282</v>
       </c>
       <c r="G4" s="1">
-        <v>1897.9243</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29749.0145</v>
+        <v>19778.0225</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>22.9636</v>
       </c>
       <c r="J4" s="1">
-        <v>15.8067</v>
+        <v>19800.9861</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.8504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10022.9636</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29749.0145</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0141</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.3605</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1897.9243</v>
       </c>
       <c r="F5" s="1">
         <v>651.0205</v>
       </c>
       <c r="G5" s="1">
-        <v>2548.9448</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38949.9153</v>
+        <v>29001.8017</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6928</v>
+        <v>29001.8017</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8067</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38949.9153</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0201</v>
+        <v>-0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.2796</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2548.9448</v>
       </c>
       <c r="F6" s="1">
         <v>654.4674</v>
       </c>
       <c r="G6" s="1">
-        <v>3203.4122</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>48692.826</v>
+        <v>38744.7253</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6084</v>
+        <v>38744.7253</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6928</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48692.826</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0053</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.4022</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3203.4122</v>
       </c>
       <c r="F7" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3852.6701</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59031.7666</v>
+        <v>49083.6423</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5736</v>
+        <v>49083.6423</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6084</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59031.7666</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.042</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3852.6701</v>
       </c>
       <c r="F8" s="1">
         <v>623.3637</v>
       </c>
       <c r="G8" s="1">
-        <v>4476.0337</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71432.5748</v>
+        <v>61484.3764</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6388</v>
+        <v>61484.3764</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5736</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71432.5748</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0348</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.8442</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4476.0337</v>
       </c>
       <c r="F9" s="1">
         <v>631.1458</v>
       </c>
       <c r="G9" s="1">
-        <v>5107.1795</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>80499.3636</v>
+        <v>70551.2438</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.6642</v>
+        <v>70551.2438</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6388</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80499.3636</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0115</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.9709</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5107.1795</v>
       </c>
       <c r="F10" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5733.3183</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>91090.9613</v>
+        <v>81142.8682</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6977</v>
+        <v>81142.8682</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.6642</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>91090.9613</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.743</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5733.3183</v>
       </c>
       <c r="F11" s="1">
         <v>597.2645</v>
       </c>
       <c r="G11" s="1">
-        <v>6330.5828</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>105443.4539</v>
+        <v>95495.2965</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.7963</v>
+        <v>95495.2965</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6977</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105443.4539</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0431</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.6195</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6330.5828</v>
       </c>
       <c r="F12" s="1">
         <v>437.5566</v>
       </c>
       <c r="G12" s="1">
-        <v>6768.1394</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>110963.0891</v>
       </c>
       <c r="I12" s="1">
-        <v>107709.5285</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.9142</v>
+        <v>110963.0891</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97709.5285</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.4345</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7709.5285</v>
       </c>
-      <c r="O12" s="1">
-        <v>2290.4715</v>
-      </c>
-      <c r="P12" s="1">
-        <v>120923.0964</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0475</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.6646</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6768.1394</v>
       </c>
       <c r="F13" s="1">
         <v>653.0245</v>
       </c>
       <c r="G13" s="1">
-        <v>7421.164</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>118936.5144</v>
       </c>
       <c r="I13" s="1">
-        <v>119244.9455</v>
+        <v>2290.4715</v>
       </c>
       <c r="J13" s="1">
-        <v>16.0682</v>
+        <v>121226.9859</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109244.9455</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.1411</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11535.417</v>
       </c>
-      <c r="O13" s="1">
-        <v>755.0545</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131167.1688</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0019</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.2588</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7421.164</v>
       </c>
       <c r="F14" s="1">
         <v>-7421.164</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127416.1904</v>
       </c>
       <c r="I14" s="1">
-        <v>119244.9455</v>
+        <v>755.0545</v>
       </c>
       <c r="J14" s="1">
-        <v>16.0682</v>
+        <v>128171.2449</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109244.9455</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.7207</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127416.1904</v>
       </c>
-      <c r="O14" s="1">
-        <v>128171.2449</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128171.2449</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0921</v>
+        <v>-0.0233</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.2123</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.0767</v>
+        <v>14.737</v>
       </c>
       <c r="D3" s="1">
-        <v>15.9803</v>
+        <v>14.5158</v>
       </c>
       <c r="E3" s="1">
-        <v>16.0018</v>
+        <v>14.5772</v>
       </c>
       <c r="F3" s="1">
-        <v>16.03</v>
+        <v>14.6444</v>
       </c>
       <c r="G3" s="1">
-        <v>16.0682</v>
+        <v>14.7207</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1045</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0077</v>
+        <v>0.0883</v>
       </c>
       <c r="D4" s="3">
-        <v>0.007</v>
+        <v>0.0876</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0078</v>
+        <v>0.0885</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0081</v>
+        <v>0.0888</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0078</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0921</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1215</v>
+        <v>0.0922</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1193</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1202</v>
+        <v>0.091</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1209</v>
+        <v>0.0917</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1215</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.9137999999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.104</v>
+        <v>0.7376</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.1121</v>
+        <v>0.7477</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.1044</v>
+        <v>0.7487</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.1007</v>
+        <v>0.7467</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.1029</v>
+        <v>0.7395</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1278</v>
+        <v>-0.024</v>
       </c>
       <c r="D7" s="3">
         <v>0.1323</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
